--- a/Calculos Excel/Cronograma.xlsx
+++ b/Calculos Excel/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CARRERA-HUAMANJULCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Tesis_bi_microclin\Calculos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7D2E1-E9A3-455C-9B74-EE4A95FBB402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6013AC40-ECA6-4A5A-A4DB-752061769089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4AD5FFF-3D72-4B4C-9D5C-EB4075DBFE8D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4AD5FFF-3D72-4B4C-9D5C-EB4075DBFE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>N°</t>
   </si>
@@ -101,12 +101,6 @@
     <t>Desarrollo del cronograma</t>
   </si>
   <si>
-    <t>Implementación del data warehouse</t>
-  </si>
-  <si>
-    <t>Despliegue en la nube</t>
-  </si>
-  <si>
     <t>Constrastación de hipótesis</t>
   </si>
   <si>
@@ -122,47 +116,56 @@
     <t xml:space="preserve">Adquisición y exploración de datos </t>
   </si>
   <si>
-    <t>Planificación del proyecto</t>
-  </si>
-  <si>
-    <t>Definición de los requisitos del negocio</t>
-  </si>
-  <si>
-    <t>Diseño de la arquitectura técnica</t>
-  </si>
-  <si>
-    <t>Selección e instalación de herramientas</t>
-  </si>
-  <si>
-    <t>Modelado dimensional</t>
-  </si>
-  <si>
-    <t>Diseño físico del data warehouse</t>
-  </si>
-  <si>
-    <t>Diseño y desarrollo del ETL</t>
-  </si>
-  <si>
-    <t>Desarrollo de aplicaciones  OLAP y BI</t>
-  </si>
-  <si>
-    <t>Pruebas de aceptación de usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantenimiento y evolución del data </t>
-  </si>
-  <si>
     <t>S15</t>
   </si>
   <si>
-    <t xml:space="preserve">Generación de reportes </t>
+    <t>Fase I: Planificación del proyecto</t>
+  </si>
+  <si>
+    <t>Fase II: Definición de los requisitos del negocio</t>
+  </si>
+  <si>
+    <t>Fase III: Diseño de la arquitectura técnica</t>
+  </si>
+  <si>
+    <t>Fase IV: Selección e instalación de herramientas</t>
+  </si>
+  <si>
+    <t>Fase V: Modelado dimensional</t>
+  </si>
+  <si>
+    <t>Fase VI: Diseño físico del data warehouse</t>
+  </si>
+  <si>
+    <t>Fase VII: Diseño y desarrollo del ETL</t>
+  </si>
+  <si>
+    <t>Fase VIII: Implementación del data warehouse</t>
+  </si>
+  <si>
+    <t>Fase X: Despliegue en la nube</t>
+  </si>
+  <si>
+    <t>Fase XI: Pruebas de aceptación de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase XII: Mantenimiento y evolución del data </t>
+  </si>
+  <si>
+    <t>Fase IX: Desarrollo de aplicaciones BI</t>
+  </si>
+  <si>
+    <t>Desarrollo de módulo IA</t>
+  </si>
+  <si>
+    <t>Poblamiento de datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +283,12 @@
       <color rgb="FF00000A"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -366,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -388,55 +397,81 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,617 +812,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B81636-B807-42B7-B6D6-88AEE6E9EEEA}">
-  <dimension ref="B3:R35"/>
+  <dimension ref="B3:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="18" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="18" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="15">
+        <v>45544</v>
+      </c>
+      <c r="E5" s="15">
+        <v>45551</v>
+      </c>
+      <c r="F5" s="15">
+        <v>45558</v>
+      </c>
+      <c r="G5" s="15">
+        <v>45565</v>
+      </c>
+      <c r="H5" s="15">
+        <v>45572</v>
+      </c>
+      <c r="I5" s="15">
+        <v>45579</v>
+      </c>
+      <c r="J5" s="15">
+        <v>45586</v>
+      </c>
+      <c r="K5" s="15">
+        <v>45593</v>
+      </c>
+      <c r="L5" s="15">
+        <v>45600</v>
+      </c>
+      <c r="M5" s="15">
+        <v>45607</v>
+      </c>
+      <c r="N5" s="15">
+        <v>45614</v>
+      </c>
+      <c r="O5" s="15">
+        <v>45621</v>
+      </c>
+      <c r="P5" s="15">
+        <v>45628</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>45635</v>
+      </c>
+      <c r="R5" s="15">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
+      <c r="C7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="2:18" s="29" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="24">
         <v>3</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
+      <c r="C8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="C9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="2:18" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="C10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="2:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="C11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="C12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="2:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="C13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="2:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
         <v>11</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="C15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
         <v>12</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="C16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
         <v>13</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="C17" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="10">
         <v>14</v>
       </c>
-      <c r="N4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="C18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
         <v>16</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="C19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="2:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="B20" s="10">
         <v>17</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="C20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
         <v>18</v>
       </c>
-      <c r="R4" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="26">
-        <v>45544</v>
-      </c>
-      <c r="E5" s="26">
-        <v>45551</v>
-      </c>
-      <c r="F5" s="26">
-        <v>45558</v>
-      </c>
-      <c r="G5" s="26">
-        <v>45565</v>
-      </c>
-      <c r="H5" s="26">
-        <v>45572</v>
-      </c>
-      <c r="I5" s="26">
-        <v>45579</v>
-      </c>
-      <c r="J5" s="26">
-        <v>45586</v>
-      </c>
-      <c r="K5" s="26">
-        <v>45593</v>
-      </c>
-      <c r="L5" s="26">
-        <v>45600</v>
-      </c>
-      <c r="M5" s="26">
-        <v>45607</v>
-      </c>
-      <c r="N5" s="26">
-        <v>45614</v>
-      </c>
-      <c r="O5" s="26">
-        <v>45621</v>
-      </c>
-      <c r="P5" s="26">
-        <v>45628</v>
-      </c>
-      <c r="Q5" s="26">
-        <v>45635</v>
-      </c>
-      <c r="R5" s="26">
-        <v>45636</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
+        <v>19</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="10">
         <v>20</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="14">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="14">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="C23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="2:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="B24" s="10">
         <v>21</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
-        <v>12</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
-        <v>14</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="C24" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="10">
         <v>22</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
-        <v>15</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
-        <v>16</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="C25" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
-        <v>18</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="23"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="14">
-        <v>19</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="23"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="14">
-        <v>20</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
